--- a/flex_comp_grid.xlsx
+++ b/flex_comp_grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055abc5dbe1424b0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D788D754-0BB3-44D5-BC39-735AF6C88873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3EF135F-DD8D-4E4C-91A0-7241A7848EE2}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{D788D754-0BB3-44D5-BC39-735AF6C88873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB6CA21-58DE-43A9-B2C7-7197BAE7B77D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96513DB1-CD1E-47C1-98BF-85D686767C8A}"/>
   </bookViews>
@@ -742,9 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3921BDC9-45CA-46B7-975C-327572EF42CA}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1083,7 +1081,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="13">
-        <f>SUM(C33:C39)</f>
+        <f>C33+C34+C35+C36+C37+C38+C39</f>
         <v>0</v>
       </c>
       <c r="D40" s="18"/>
